--- a/data/outputs/management/55.xlsx
+++ b/data/outputs/management/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ50"/>
+  <dimension ref="A1:BR50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4511640</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4511656</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1350,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1560,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>58962173</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1753,6 +1774,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4483532</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1942,6 +1968,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2159,6 +2186,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3789399</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2396,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4277137</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2569,6 +2606,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2786,6 +2824,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>3788549</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2987,6 +3030,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>3040555</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3188,6 +3236,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4257767</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3397,6 +3450,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3598,6 +3652,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3791,6 +3846,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4025055</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4004,6 +4064,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4221,6 +4282,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3743179</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4496,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2812376</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4631,6 +4702,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4844,6 +4916,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5053,6 +5126,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>2708442</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5258,6 +5336,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>2144111</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5467,6 +5550,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>49085759</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5676,6 +5764,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5881,6 +5970,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6090,6 +6180,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6303,6 +6394,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6504,6 +6596,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>3548947</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6713,6 +6810,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3794643</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6930,6 +7032,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7147,6 +7250,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7352,6 +7456,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3731502</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7557,6 +7666,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>3712613</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7762,6 +7876,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7971,6 +8086,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>9909350</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8172,6 +8292,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3733892</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8361,6 +8486,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>3733427</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8570,6 +8700,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3109341</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8783,6 +8918,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>3757364</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8992,6 +9132,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9201,6 +9342,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9410,6 +9552,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9615,6 +9758,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9824,6 +9968,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3779592</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10029,6 +10178,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2855656</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10238,6 +10392,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10455,6 +10610,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10664,6 +10820,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>18036342</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10877,6 +11038,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
